--- a/fenyongV3.0.0/test_data/fenyong_data.xlsx
+++ b/fenyongV3.0.0/test_data/fenyong_data.xlsx
@@ -74,69 +74,8 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -167,8 +106,75 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -191,22 +197,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,7 +237,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,13 +285,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,19 +297,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +357,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,37 +381,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,13 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,31 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,7 +511,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +531,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -538,21 +562,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,32 +584,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -653,133 +653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="13" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2048,8 +2048,8 @@
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5"/>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="G2" s="12" t="inlineStr">
         <is>
-          <t>普通焕商商企服务</t>
+          <t>普通焕商本地生活</t>
         </is>
       </c>
       <c r="H2" s="12" t="inlineStr">
@@ -2233,17 +2233,17 @@
       </c>
       <c r="J2" s="12" t="inlineStr">
         <is>
-          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}</t>
+          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}</t>
         </is>
       </c>
       <c r="K2" s="12" t="inlineStr">
         <is>
-          <t>[{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
+          <t>[{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
         </is>
       </c>
       <c r="L2" s="12" t="inlineStr">
         <is>
-          <t>EC-2020090917553100003285</t>
+          <t>EC-2020091011164500003457</t>
         </is>
       </c>
       <c r="M2" s="12" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="R2" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999986967.47'), Decimal('999987067.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999986966.47'), Decimal('999986967.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('153665.05'), Decimal('153668.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942103.67'), Decimal('101942003.67'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942104.67'), Decimal('101942103.67'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962456.76'), Decimal('13962453.76'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101942004.67'), Decimal('101942104.67'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('16946.08'), Decimal('16846.08'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('65098.67'), Decimal('65083.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('108777.30'), Decimal('108750.30'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52504.40'), Decimal('52499.90'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('18473.02'), Decimal('18469.87'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('4973.46'), Decimal('4972.11'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316170093.03'), Decimal('999999316170084.03'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101942003.67'), Decimal('101942004.67'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('16946.23'), Decimal('16946.08'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('100024.43'), Decimal('100023.98'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('505.93'), Decimal('505.83'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('860.54'), Decimal('860.47'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('14.88'), Decimal('14.85'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101942003.87'), Decimal('101942003.67'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999985654.47'), Decimal('999985754.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999985653.47'), Decimal('999985654.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('157426.05'), Decimal('157429.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942108.38'), Decimal('101942008.38'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942109.38'), Decimal('101942108.38'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962519.82'), Decimal('13962516.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101942009.38'), Decimal('101942109.38'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('19547.73'), Decimal('19447.73'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('66178.73'), Decimal('66163.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('110552.88'), Decimal('110525.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52850.94'), Decimal('52846.44'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('18764.36'), Decimal('18761.21'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('5284.26'), Decimal('5282.91'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316173007.11'), Decimal('999999316172998.11'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101942008.38'), Decimal('101942009.38'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('19547.88'), Decimal('19547.73'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('100030.59'), Decimal('100030.14'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('507.23'), Decimal('507.13'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('861.45'), Decimal('861.38'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('15.27'), Decimal('15.24'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101942008.58'), Decimal('101942008.38'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S2" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999986967.47'), Decimal('999987067.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999986966.47'), Decimal('999986967.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('153665.05'), Decimal('153668.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942103.67'), Decimal('101942003.67'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942104.67'), Decimal('101942103.67'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962456.76'), Decimal('13962453.76'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101942004.67'), Decimal('101942104.67'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('16946.08'), Decimal('16846.08'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('65098.67'), Decimal('65083.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('108777.30'), Decimal('108750.30'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52504.40'), Decimal('52499.90'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('18473.02'), Decimal('18469.87'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('4973.46'), Decimal('4972.11'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316170093.03'), Decimal('999999316170084.03'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101942003.67'), Decimal('101942004.67'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('16946.23'), Decimal('16946.08'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('100024.43'), Decimal('100023.98'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('505.93'), Decimal('505.83'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('860.54'), Decimal('860.47'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('14.88'), Decimal('14.85'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101942003.87'), Decimal('101942003.67'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999985654.47'), Decimal('999985754.47'), '易贝购买商品：扣除买家订单易贝金额', 1), (1000656, 2, 1, Decimal('-1.00'), Decimal('999985653.47'), Decimal('999985654.47'), '易贝购买商品：扣除买家易贝服务费', 1), (1000656, 2, 1, Decimal('-3.00'), Decimal('157426.05'), Decimal('157429.05'), '易贝购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942108.38'), Decimal('101942008.38'), '易贝购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942109.38'), Decimal('101942108.38'), '易贝购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962519.82'), Decimal('13962516.82'), '易贝购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101942009.38'), Decimal('101942109.38'), '易贝购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('19547.73'), Decimal('19447.73'), '易贝购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('66178.73'), Decimal('66163.73'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('110552.88'), Decimal('110525.88'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52850.94'), Decimal('52846.44'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('18764.36'), Decimal('18761.21'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('5284.26'), Decimal('5282.91'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316173007.11'), Decimal('999999316172998.11'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101942008.38'), Decimal('101942009.38'), '易贝购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1000650, 2, 2, Decimal('0.15'), Decimal('19547.88'), Decimal('19547.73'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000648, 2, 2, Decimal('0.45'), Decimal('100030.59'), Decimal('100030.14'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000647, 2, 2, Decimal('0.10'), Decimal('507.23'), Decimal('507.13'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000646, 2, 2, Decimal('0.07'), Decimal('861.45'), Decimal('861.38'), '易贝购买商品：扣除买家易贝服务费分润', 1), (1000794, 2, 11, Decimal('0.03'), Decimal('15.27'), Decimal('15.24'), 'TCO分佣金额（易贝）收入', 1), (10, 2, 2, Decimal('0.20'), Decimal('101942008.58'), Decimal('101942008.38'), '易贝购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T2" s="12" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G3" s="12" t="inlineStr">
         <is>
-          <t>普通焕商商企服务</t>
+          <t>普通焕商本地生活</t>
         </is>
       </c>
       <c r="H3" s="12" t="inlineStr">
@@ -2341,22 +2341,22 @@
       </c>
       <c r="J3" s="12" t="inlineStr">
         <is>
-          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}</t>
+          <t>{'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}</t>
         </is>
       </c>
       <c r="K3" s="12" t="inlineStr">
         <is>
-          <t>[{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
+          <t>[{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}]</t>
         </is>
       </c>
       <c r="L3" s="12" t="inlineStr">
         <is>
-          <t>EC-2020090917542700003269</t>
+          <t>EC-2020091010273800003399</t>
         </is>
       </c>
       <c r="M3" s="12" t="inlineStr">
         <is>
-          <t>{'charge_amount': Decimal('200'), 'reserve_fund': Decimal('120.00')}</t>
+          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
         </is>
       </c>
       <c r="N3" s="12" t="inlineStr">
@@ -2381,12 +2381,12 @@
       </c>
       <c r="R3" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1994766.00'), Decimal('1994866.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942103.87'), Decimal('101942003.87'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101942003.87'), Decimal('101942103.87'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('17046.23'), Decimal('16946.23'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('65113.67'), Decimal('65098.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('108828.30'), Decimal('108801.30'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52512.90'), Decimal('52508.40'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('18478.97'), Decimal('18475.82'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('4976.01'), Decimal('4974.66'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316170170.03'), Decimal('999999316170161.03'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1994366.00'), Decimal('1994466.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942107.58'), Decimal('101942007.58'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101942007.58'), Decimal('101942107.58'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('18546.68'), Decimal('18446.68'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('65917.67'), Decimal('65902.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('110054.34'), Decimal('110027.34'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52752.50'), Decimal('52748.00'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('18681.67'), Decimal('18678.52'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('5222.07'), Decimal('5220.72'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316172329.23'), Decimal('999999316172320.23'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
         </is>
       </c>
       <c r="S3" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1994766.00'), Decimal('1994866.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942103.87'), Decimal('101942003.87'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101942003.87'), Decimal('101942103.87'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('17046.23'), Decimal('16946.23'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('65113.67'), Decimal('65098.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('108828.30'), Decimal('108801.30'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52512.90'), Decimal('52508.40'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('18478.97'), Decimal('18475.82'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('4976.01'), Decimal('4974.66'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316170170.03'), Decimal('999999316170161.03'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('1994366.00'), Decimal('1994466.00'), '易贝券支付购物商品费用：扣除买家订单易贝金额', 10), (10, 2, 3, Decimal('100.00'), Decimal('101942107.58'), Decimal('101942007.58'), '易贝券支付购物商品费用：扣除买家订单易贝金额转入平台', 1), (10, 2, 3, Decimal('-100.00'), Decimal('101942007.58'), Decimal('101942107.58'), '易贝券支付购物商品费用：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('18546.68'), Decimal('18446.68'), '易贝券支付购物商品费用:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('65917.67'), Decimal('65902.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('27.00'), Decimal('110054.34'), Decimal('110027.34'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52752.50'), Decimal('52748.00'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('3.15'), Decimal('18681.67'), Decimal('18678.52'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('1.35'), Decimal('5222.07'), Decimal('5220.72'), 'TCO分佣金额（现金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316172329.23'), Decimal('999999316172320.23'), '购买商品：代理商分佣金额（激励金）收入', 2))</t>
         </is>
       </c>
       <c r="T3" s="12" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="G4" s="12" t="inlineStr">
         <is>
-          <t>普通焕商商企服务</t>
+          <t>普通焕商本地生活</t>
         </is>
       </c>
       <c r="H4" s="12" t="inlineStr">
@@ -2449,22 +2449,22 @@
       </c>
       <c r="J4" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
         </is>
       </c>
       <c r="K4" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
+          <t>{'储备池分佣': [{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
         </is>
       </c>
       <c r="L4" s="12" t="inlineStr">
         <is>
-          <t>EC-2020090917543300003273</t>
+          <t>EC-2020091010274700003403</t>
         </is>
       </c>
       <c r="M4" s="12" t="inlineStr">
         <is>
-          <t>{'charge_amount': Decimal('300'), 'reserve_fund': Decimal('180.00')}</t>
+          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
         </is>
       </c>
       <c r="N4" s="12" t="inlineStr">
@@ -2489,12 +2489,12 @@
       </c>
       <c r="R4" s="12" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086900423.78'), Decimal('1086900523.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086900422.78'), Decimal('1086900423.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698447.03'), Decimal('9999698450.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942103.87'), Decimal('101942003.87'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942104.87'), Decimal('101942103.87'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962459.76'), Decimal('13962456.76'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101942004.87'), Decimal('101942104.87'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('17146.23'), Decimal('17046.23'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('65128.67'), Decimal('65113.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('108864.00'), Decimal('108845.10'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('4991.31'), Decimal('4983.21'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52521.40'), Decimal('52516.90'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('18487.47'), Decimal('18482.97'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316170247.03'), Decimal('999999316170238.03'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101942003.87'), Decimal('101942004.87'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('14.62'), Decimal('14.47'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19084.48'), Decimal('19083.93'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982676.51'), Decimal('999897982676.41'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101942004.07'), Decimal('101942003.87'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086899817.78'), Decimal('1086899917.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086899816.78'), Decimal('1086899817.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698429.03'), Decimal('9999698432.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942107.58'), Decimal('101942007.58'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942108.58'), Decimal('101942107.58'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962492.82'), Decimal('13962489.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101942008.58'), Decimal('101942108.58'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('18646.68'), Decimal('18546.68'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('65932.67'), Decimal('65917.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('110090.04'), Decimal('110071.14'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('5237.37'), Decimal('5229.27'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52761.00'), Decimal('52756.50'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('18690.17'), Decimal('18685.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316172406.23'), Decimal('999999316172397.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101942007.58'), Decimal('101942008.58'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('15.52'), Decimal('15.37'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19087.78'), Decimal('19087.23'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982677.11'), Decimal('999897982677.01'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101942007.78'), Decimal('101942007.58'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="S4" s="12" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086900423.78'), Decimal('1086900523.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086900422.78'), Decimal('1086900423.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698447.03'), Decimal('9999698450.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942103.87'), Decimal('101942003.87'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942104.87'), Decimal('101942103.87'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962459.76'), Decimal('13962456.76'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101942004.87'), Decimal('101942104.87'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('17146.23'), Decimal('17046.23'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('65128.67'), Decimal('65113.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('108864.00'), Decimal('108845.10'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('4991.31'), Decimal('4983.21'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52521.40'), Decimal('52516.90'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('18487.47'), Decimal('18482.97'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316170247.03'), Decimal('999999316170238.03'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101942003.87'), Decimal('101942004.87'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('14.62'), Decimal('14.47'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19084.48'), Decimal('19083.93'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982676.51'), Decimal('999897982676.41'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101942004.07'), Decimal('101942003.87'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086899817.78'), Decimal('1086899917.78'), '抵工资购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086899816.78'), Decimal('1086899817.78'), '抵工资购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698429.03'), Decimal('9999698432.03'), '抵工资购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942107.58'), Decimal('101942007.58'), '抵工资购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942108.58'), Decimal('101942107.58'), '抵工资购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962492.82'), Decimal('13962489.82'), '抵工资购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101942008.58'), Decimal('101942108.58'), '抵工资购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('18646.68'), Decimal('18546.68'), '抵工资购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('65932.67'), Decimal('65917.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('110090.04'), Decimal('110071.14'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('5237.37'), Decimal('5229.27'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52761.00'), Decimal('52756.50'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('18690.17'), Decimal('18685.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316172406.23'), Decimal('999999316172397.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101942007.58'), Decimal('101942008.58'), '抵工资购买商品：扣除买家易贝服务费分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('15.52'), Decimal('15.37'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19087.78'), Decimal('19087.23'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982677.11'), Decimal('999897982677.01'), '抵工资购买商品：扣除买家易贝服务费分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101942007.78'), Decimal('101942007.58'), '抵工资购买商品：扣除买家易贝服务费分润', 1))</t>
         </is>
       </c>
       <c r="T4" s="12" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="G5" s="12" t="inlineStr">
         <is>
-          <t>普通焕商商企服务</t>
+          <t>普通焕商本地生活</t>
         </is>
       </c>
       <c r="H5" s="12" t="inlineStr">
@@ -2557,22 +2557,22 @@
       </c>
       <c r="J5" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': None}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
+          <t>{'储备池分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '区分佣比例': Decimal('0.60'), '个人分佣比例': Decimal('0.15')}, '支付服务费分佣': {'市分佣比例': Decimal('0.70'), '省分佣比例': Decimal('0.80'), '个人分佣比例': Decimal('0.15'), '区分佣比例': None}}</t>
         </is>
       </c>
       <c r="K5" s="12" t="inlineStr">
         <is>
-          <t>{'储备池分佣': [{'个人焕商': None}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
+          <t>{'储备池分佣': [{'个人焕商': 1000650}, {'省代理商': 1000646, '市代理商': 1000647, '区代理商': 1000648}], '支付服务费分佣': [{'个人焕商': 1001308}, {'市代理商': 103554, '省代理商': 1000246, '区代理商': None}]}</t>
         </is>
       </c>
       <c r="L5" s="12" t="inlineStr">
         <is>
-          <t>EC-2020090917543900003277</t>
+          <t>EC-2020091010275700003407</t>
         </is>
       </c>
       <c r="M5" s="12" t="inlineStr">
         <is>
-          <t>{'charge_amount': Decimal('400'), 'reserve_fund': Decimal('240.00')}</t>
+          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
         </is>
       </c>
       <c r="N5" s="12" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="R5" s="12" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086900322.78'), Decimal('1086900422.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086900321.78'), Decimal('1086900322.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698444.03'), Decimal('9999698447.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942104.07'), Decimal('101942004.07'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942105.07'), Decimal('101942104.07'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962462.76'), Decimal('13962459.76'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101942005.07'), Decimal('101942105.07'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('17246.23'), Decimal('17146.23'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('65143.67'), Decimal('65128.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('108899.70'), Decimal('108880.80'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('5006.61'), Decimal('4998.51'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52529.90'), Decimal('52525.40'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('18495.97'), Decimal('18491.47'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316170324.03'), Decimal('999999316170315.03'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101942004.07'), Decimal('101942005.07'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('14.77'), Decimal('14.62'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19085.03'), Decimal('19084.48'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982676.61'), Decimal('999897982676.51'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101942004.27'), Decimal('101942004.07'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086899716.78'), Decimal('1086899816.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086899715.78'), Decimal('1086899716.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698426.03'), Decimal('9999698429.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942107.78'), Decimal('101942007.78'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942108.78'), Decimal('101942107.78'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962495.82'), Decimal('13962492.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101942008.78'), Decimal('101942108.78'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('18746.68'), Decimal('18646.68'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('65947.67'), Decimal('65932.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('110125.74'), Decimal('110106.84'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('5252.67'), Decimal('5244.57'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52769.50'), Decimal('52765.00'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('18698.67'), Decimal('18694.17'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316172483.23'), Decimal('999999316172474.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101942007.78'), Decimal('101942008.78'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('15.67'), Decimal('15.52'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19088.33'), Decimal('19087.78'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982677.21'), Decimal('999897982677.11'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101942007.98'), Decimal('101942007.78'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
         </is>
       </c>
       <c r="S5" s="12" t="inlineStr">
         <is>
-          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086900322.78'), Decimal('1086900422.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086900321.78'), Decimal('1086900322.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698444.03'), Decimal('9999698447.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942104.07'), Decimal('101942004.07'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942105.07'), Decimal('101942104.07'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962462.76'), Decimal('13962459.76'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101942005.07'), Decimal('101942105.07'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('17246.23'), Decimal('17146.23'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('65143.67'), Decimal('65128.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('108899.70'), Decimal('108880.80'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('5006.61'), Decimal('4998.51'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52529.90'), Decimal('52525.40'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('18495.97'), Decimal('18491.47'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316170324.03'), Decimal('999999316170315.03'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101942004.07'), Decimal('101942005.07'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('14.77'), Decimal('14.62'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19085.03'), Decimal('19084.48'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982676.61'), Decimal('999897982676.51'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101942004.27'), Decimal('101942004.07'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
+          <t>((1000166, 2, 3, Decimal('-100.00'), Decimal('1086899716.78'), Decimal('1086899816.78'), '亲情购买商品：扣除买家订单易贝金额', 1), (1000166, 2, 1, Decimal('-1.00'), Decimal('1086899715.78'), Decimal('1086899716.78'), '亲情购买商品：扣除买家易贝服务费', 1), (1000166, 2, 1, Decimal('-3.00'), Decimal('9999698426.03'), Decimal('9999698429.03'), '亲情购买商品：扣除买家现金服务费', 3), (10, 2, 3, Decimal('100.00'), Decimal('101942107.78'), Decimal('101942007.78'), '亲情购买商品：扣除买家订单易贝金额转入平台', 1), (10, 2, 1, Decimal('1.00'), Decimal('101942108.78'), Decimal('101942107.78'), '亲情购买商品：扣除买家易贝服务费转入平台', 1), (10, 2, 1, Decimal('3.00'), Decimal('13962495.82'), Decimal('13962492.82'), '亲情购买商品：扣除买家现金服务费转入平台', 3), (10, 2, 3, Decimal('-100.00'), Decimal('101942008.78'), Decimal('101942108.78'), '亲情购买商品：订单易贝金额从平台转出', 1), (1000650, 2, 3, Decimal('100.00'), Decimal('18746.68'), Decimal('18646.68'), '亲情购买商品:扣除买家订单易贝金额转给卖家', 1), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('65947.67'), Decimal('65932.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('110125.74'), Decimal('110106.84'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('5252.67'), Decimal('5244.57'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52769.50'), Decimal('52765.00'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('18698.67'), Decimal('18694.17'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316172483.23'), Decimal('999999316172474.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-1.00'), Decimal('101942007.78'), Decimal('101942008.78'), '亲情购买商品：扣除买家易贝服务费进行分润(服务费)总金额支出', 1), (1001308, 2, 2, Decimal('0.15'), Decimal('15.67'), Decimal('15.52'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (103554, 2, 2, Decimal('0.55'), Decimal('19088.33'), Decimal('19087.78'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (1000246, 2, 2, Decimal('0.10'), Decimal('999897982677.21'), Decimal('999897982677.11'), '亲情购买商品：扣除买家易贝服务费进行分润', 1), (10, 2, 2, Decimal('0.20'), Decimal('101942007.98'), Decimal('101942007.78'), '亲情购买商品：扣除买家易贝服务费进行分润', 1))</t>
         </is>
       </c>
       <c r="T5" s="12" t="inlineStr">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="G6" s="12" t="inlineStr">
         <is>
-          <t>普通焕商商企服务</t>
+          <t>普通焕商本地生活</t>
         </is>
       </c>
       <c r="H6" s="12" t="inlineStr">
@@ -2675,12 +2675,12 @@
       </c>
       <c r="L6" s="12" t="inlineStr">
         <is>
-          <t>EC-2020090917544500003281</t>
+          <t>EC-2020091010281600003411</t>
         </is>
       </c>
       <c r="M6" s="12" t="inlineStr">
         <is>
-          <t>{'charge_amount': Decimal('500'), 'reserve_fund': Decimal('300.00')}</t>
+          <t>{'charge_amount': Decimal('100'), 'reserve_fund': Decimal('60.00')}</t>
         </is>
       </c>
       <c r="N6" s="12" t="inlineStr">
@@ -2700,17 +2700,17 @@
       </c>
       <c r="Q6" s="12" t="inlineStr">
         <is>
-          <t>[Decimal('-100.00'), Decimal('96.00'), Decimal('4.00'), Decimal('-96.00'), Decimal('100.00'), Decimal('-4.00'), Decimal('-300.00'), Decimal('75.00'), Decimal('94.50'), Decimal('40.50'), Decimal('22.50'), Decimal('22.50'), Decimal('45.00'), Decimal('-4.00'), Decimal('0.60'), Decimal('1.26'), Decimal('0.54'), Decimal('0.40'), Decimal('0.40'), Decimal('0.80')]</t>
+          <t>[Decimal('-100.00'), Decimal('96.00'), Decimal('4.00'), Decimal('-96.00'), Decimal('100.00'), Decimal('-4.00'), Decimal('-60.00'), Decimal('15.00'), Decimal('18.90'), Decimal('8.10'), Decimal('4.50'), Decimal('4.50'), Decimal('9.00'), Decimal('-4.00'), Decimal('0.60'), Decimal('1.26'), Decimal('0.54'), Decimal('0.40'), Decimal('0.40'), Decimal('0.80')]</t>
         </is>
       </c>
       <c r="R6" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999904145.05'), Decimal('999904245.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('96.00'), Decimal('999999316170837.83'), Decimal('999999316170741.83'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('4.00'), Decimal('999999316170841.83'), Decimal('999999316170837.83'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-96.00'), Decimal('999999316170745.83'), Decimal('999999316170841.83'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('65354.67'), Decimal('65254.67'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-4.00'), Decimal('65350.67'), Decimal('65354.67'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-300.00'), Decimal('0.00'), Decimal('300.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('75.00'), Decimal('65425.67'), Decimal('65350.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('94.50'), Decimal('109129.56'), Decimal('109035.06'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('40.50'), Decimal('5086.95'), Decimal('5046.45'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('22.50'), Decimal('52581.30'), Decimal('52558.80'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('22.50'), Decimal('18544.97'), Decimal('18522.47'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('45.00'), Decimal('999999316170790.83'), Decimal('999999316170745.83'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-4.00'), Decimal('999999316170786.83'), Decimal('999999316170790.83'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('0.60'), Decimal('106671.00'), Decimal('106670.40'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('1.26'), Decimal('109130.82'), Decimal('109129.56'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.54'), Decimal('5087.49'), Decimal('5086.95'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.40'), Decimal('52581.70'), Decimal('52581.30'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.40'), Decimal('18545.37'), Decimal('18544.97'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.80'), Decimal('999999316170787.63'), Decimal('999999316170786.83'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999901545.05'), Decimal('999901645.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('96.00'), Decimal('999999316172647.23'), Decimal('999999316172551.23'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('4.00'), Decimal('999999316172651.23'), Decimal('999999316172647.23'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-96.00'), Decimal('999999316172555.23'), Decimal('999999316172651.23'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('66047.67'), Decimal('65947.67'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-4.00'), Decimal('66043.67'), Decimal('66047.67'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('66058.67'), Decimal('66043.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('110161.44'), Decimal('110142.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('5267.97'), Decimal('5259.87'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52778.00'), Decimal('52773.50'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('18707.17'), Decimal('18702.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316172564.23'), Decimal('999999316172555.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-4.00'), Decimal('999999316172560.23'), Decimal('999999316172564.23'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('0.60'), Decimal('106672.80'), Decimal('106672.20'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('1.26'), Decimal('110162.70'), Decimal('110161.44'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.54'), Decimal('5268.51'), Decimal('5267.97'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.40'), Decimal('52778.40'), Decimal('52778.00'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.40'), Decimal('18707.57'), Decimal('18707.17'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.80'), Decimal('999999316172561.03'), Decimal('999999316172560.23'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
         </is>
       </c>
       <c r="S6" s="12" t="inlineStr">
         <is>
-          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999904145.05'), Decimal('999904245.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('96.00'), Decimal('999999316170837.83'), Decimal('999999316170741.83'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('4.00'), Decimal('999999316170841.83'), Decimal('999999316170837.83'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-96.00'), Decimal('999999316170745.83'), Decimal('999999316170841.83'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('65354.67'), Decimal('65254.67'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-4.00'), Decimal('65350.67'), Decimal('65354.67'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-300.00'), Decimal('0.00'), Decimal('300.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('75.00'), Decimal('65425.67'), Decimal('65350.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('94.50'), Decimal('109129.56'), Decimal('109035.06'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('40.50'), Decimal('5086.95'), Decimal('5046.45'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('22.50'), Decimal('52581.30'), Decimal('52558.80'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('22.50'), Decimal('18544.97'), Decimal('18522.47'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('45.00'), Decimal('999999316170790.83'), Decimal('999999316170745.83'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-4.00'), Decimal('999999316170786.83'), Decimal('999999316170790.83'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('0.60'), Decimal('106671.00'), Decimal('106670.40'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('1.26'), Decimal('109130.82'), Decimal('109129.56'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.54'), Decimal('5087.49'), Decimal('5086.95'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.40'), Decimal('52581.70'), Decimal('52581.30'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.40'), Decimal('18545.37'), Decimal('18544.97'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.80'), Decimal('999999316170787.63'), Decimal('999999316170786.83'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
+          <t>((1000656, 2, 3, Decimal('-100.00'), Decimal('999901545.05'), Decimal('999901645.05'), '现金支付购物商品费用：扣除买家订单金额（现金）', 2), (10, 2, 3, Decimal('96.00'), Decimal('999999316172647.23'), Decimal('999999316172551.23'), '现金支付购物商品费用：扣除买家订单金额（现金）转入平台(卖家实际应收到的金额)', 2), (10, 2, 1, Decimal('4.00'), Decimal('999999316172651.23'), Decimal('999999316172647.23'), '现金支付购物商品费用：扣除卖家（现金）服务费转入平台', 2), (10, 2, 3, Decimal('-96.00'), Decimal('999999316172555.23'), Decimal('999999316172651.23'), '现金支付购物商品费用：扣除买家订单金额（现金）转从平台(卖家实际应收到的金额)转出', 2), (1000650, 2, 3, Decimal('100.00'), Decimal('66047.67'), Decimal('65947.67'), '现金支付购物商品费用：扣除买家订单金额（现金）转给卖家(全部)', 2), (1000650, 2, 1, Decimal('-4.00'), Decimal('66043.67'), Decimal('66047.67'), '现金支付购物商品费用：从卖家现金账户扣除（现金）服务费', 2), (1000656, 2, 9, Decimal('-60.00'), Decimal('0.00'), Decimal('60.00'), '购买商品：扣除买家储备金', 11), (1000650, 2, 10, Decimal('15.00'), Decimal('66058.67'), Decimal('66043.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000648, 2, 10, Decimal('18.90'), Decimal('110161.44'), Decimal('110142.54'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000794, 2, 11, Decimal('8.10'), Decimal('5267.97'), Decimal('5259.87'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 10, Decimal('4.50'), Decimal('52778.00'), Decimal('52773.50'), '购买商品：代理商分佣金额（激励金）收入', 2), (1000646, 2, 10, Decimal('4.50'), Decimal('18707.17'), Decimal('18702.67'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 10, Decimal('9.00'), Decimal('999999316172564.23'), Decimal('999999316172555.23'), '购买商品：代理商分佣金额（激励金）收入', 2), (10, 2, 1, Decimal('-4.00'), Decimal('999999316172560.23'), Decimal('999999316172564.23'), '现金支付购物商品费用：扣除买家现金服务费分润(服务费)总金额支出', 2), (1001259, 2, 2, Decimal('0.60'), Decimal('106672.80'), Decimal('106672.20'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000648, 2, 2, Decimal('1.26'), Decimal('110162.70'), Decimal('110161.44'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000794, 2, 11, Decimal('0.54'), Decimal('5268.51'), Decimal('5267.97'), 'TCO分佣金额（现金）收入', 2), (1000647, 2, 2, Decimal('0.40'), Decimal('52778.40'), Decimal('52778.00'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (1000646, 2, 2, Decimal('0.40'), Decimal('18707.57'), Decimal('18707.17'), '现金支付购物商品费用：扣除买家现金服务费分润', 2), (10, 2, 2, Decimal('0.80'), Decimal('999999316172561.03'), Decimal('999999316172560.23'), '现金支付购物商品费用：扣除买家现金服务费分润', 2))</t>
         </is>
       </c>
       <c r="T6" s="12" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="G23" s="12" t="inlineStr">
         <is>
-          <t>普通焕商商企服务</t>
+          <t>普通焕商本地生活</t>
         </is>
       </c>
       <c r="H23" s="12" t="inlineStr">
@@ -3678,17 +3678,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation sqref="F22 F23 F1:F11 F12:F16 F17:F21 F24:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
+    </dataValidation>
     <dataValidation sqref="C22 C23 C1:C11 C12:C16 C17:C21 C24:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"普通会员,白银会员,黄金会员,铂金会员,钻石会员"</formula1>
-    </dataValidation>
-    <dataValidation sqref="E22 E23 E1:E11 E12:E16 E17:E21 E24:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
     </dataValidation>
     <dataValidation sqref="D22 D23 D1:D11 D12:D16 D17:D21 D24:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"公海用户,非公海用户"</formula1>
     </dataValidation>
-    <dataValidation sqref="F22 F23 F1:F11 F12:F16 F17:F21 F24:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
+    <dataValidation sqref="E22 E23 E1:E11 E12:E16 E17:E21 E24:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6933,17 +6933,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation sqref="F1 F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
+    </dataValidation>
     <dataValidation sqref="C1 C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"普通会员,白银会员,黄金会员,铂金会员,钻石会员"</formula1>
-    </dataValidation>
-    <dataValidation sqref="E1 E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
     </dataValidation>
     <dataValidation sqref="D1 D2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"公海用户,非公海用户"</formula1>
     </dataValidation>
-    <dataValidation sqref="F1 F2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
+    <dataValidation sqref="E1 E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9805,17 +9805,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation sqref="F1:F11 F12:F16 F17:F21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
+    </dataValidation>
     <dataValidation sqref="C1:C11 C12:C16 C17:C21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"普通会员,白银会员,黄金会员,铂金会员,钻石会员"</formula1>
-    </dataValidation>
-    <dataValidation sqref="E1:E11 E12:E16 E17:E21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
     </dataValidation>
     <dataValidation sqref="D1:D11 D12:D16 D17:D21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"公海用户,非公海用户"</formula1>
     </dataValidation>
-    <dataValidation sqref="F1:F11 F12:F16 F17:F21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"易贝,易贝券,抵工资,家人购,现金,微信,支付宝"</formula1>
+    <dataValidation sqref="E1:E11 E12:E16 E17:E21" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"个人焕商,区域焕商,非焕商且未绑定个人焕商,非焕商且已绑定个人焕商"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
